--- a/Scrum_Board.xlsx
+++ b/Scrum_Board.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="-220" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,128 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>DOING</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TASK DESCRIPTION </t>
+  </si>
+  <si>
+    <t>OWNER</t>
+  </si>
+  <si>
+    <t>HOURS</t>
+  </si>
+  <si>
+    <t>Led Blink Pi 2</t>
+  </si>
+  <si>
+    <t>Everyone</t>
+  </si>
+  <si>
+    <t>Hardware ordering</t>
+  </si>
+  <si>
+    <t>Bart</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Documentation PID</t>
+  </si>
+  <si>
+    <t>Robbert</t>
+  </si>
+  <si>
+    <t>Robbert/Dennis</t>
+  </si>
+  <si>
+    <t>Scrum initalizing</t>
+  </si>
+  <si>
+    <t>Install buildroot</t>
+  </si>
+  <si>
+    <t>Git initalizing</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -28,13 +147,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,18 +192,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G23" totalsRowShown="0">
+  <autoFilter ref="A1:G23"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="PRIORITY"/>
+    <tableColumn id="2" name="TASK DESCRIPTION "/>
+    <tableColumn id="3" name="OWNER"/>
+    <tableColumn id="4" name="TODO"/>
+    <tableColumn id="5" name="DOING"/>
+    <tableColumn id="6" name="DONE"/>
+    <tableColumn id="7" name="HOURS" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,13 +553,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Scrum_Board.xlsx
+++ b/Scrum_Board.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\BeerTender\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t>PRIORITY</t>
   </si>
@@ -143,16 +151,40 @@
   </si>
   <si>
     <t>3.7</t>
+  </si>
+  <si>
+    <t>cross compile module for pi</t>
+  </si>
+  <si>
+    <t>blink led module for pi</t>
+  </si>
+  <si>
+    <t>porting PWM naar pi2</t>
+  </si>
+  <si>
+    <t>algoritme besturing</t>
+  </si>
+  <si>
+    <t>Backlog</t>
+  </si>
+  <si>
+    <t>Dennis/Robbert</t>
+  </si>
+  <si>
+    <t>Jeroen</t>
+  </si>
+  <si>
+    <t>software architectuur</t>
+  </si>
+  <si>
+    <t>Dennis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -161,20 +193,10 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="9"/>
       <name val="Calibri"/>
@@ -183,6 +205,19 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -420,122 +455,130 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="30">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff4f81bd"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffb8cce4"/>
-      <rgbColor rgb="ffdbe5f1"/>
-      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF4F81BD"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFB8CCE4"/>
+      <rgbColor rgb="FFDBE5F1"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -727,7 +770,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -736,7 +779,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -745,7 +788,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -754,7 +797,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -763,7 +806,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -772,7 +815,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -884,8 +927,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -893,14 +936,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -919,7 +962,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -927,7 +970,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -955,7 +998,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -981,7 +1024,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1007,7 +1050,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1033,7 +1076,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1059,7 +1102,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1085,7 +1128,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1111,7 +1154,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1137,7 +1180,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1163,7 +1206,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1176,9 +1219,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1194,7 +1243,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1213,7 +1262,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1239,7 +1288,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1265,7 +1314,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1291,7 +1340,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1317,7 +1366,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1343,7 +1392,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1369,7 +1418,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1395,7 +1444,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1421,7 +1470,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1447,7 +1496,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1460,9 +1509,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1475,7 +1530,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1494,7 +1549,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1524,7 +1579,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1550,7 +1605,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1576,7 +1631,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1602,7 +1657,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1628,7 +1683,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1654,7 +1709,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1680,7 +1735,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1706,7 +1761,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1732,7 +1787,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1745,169 +1800,176 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="1" customWidth="1"/>
-    <col min="9" max="256" width="8.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.8984375" style="1" customWidth="1"/>
+    <col min="4" max="256" width="8.09765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" ht="20" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s" s="7">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" t="s" s="7">
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" ht="19" customHeight="1">
-      <c r="A3" t="s" s="10">
+    <row r="3" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="11">
+      <c r="B3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s" s="11">
+      <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" t="s" s="11">
+      <c r="F3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" ht="19" customHeight="1">
-      <c r="A4" t="s" s="14">
+    <row r="4" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s" s="15">
+      <c r="B4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s" s="15">
+      <c r="C4" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
-      <c r="F4" t="s" s="15">
+      <c r="F4" s="15" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" ht="19" customHeight="1">
-      <c r="A5" t="s" s="10">
+    <row r="5" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s" s="11">
+      <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s" s="11">
+      <c r="C5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
-      <c r="F5" t="s" s="11">
+      <c r="F5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" ht="19" customHeight="1">
-      <c r="A6" t="s" s="14">
+    <row r="6" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s" s="15">
+      <c r="B6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s" s="15">
+      <c r="C6" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
-      <c r="F6" t="s" s="15">
+      <c r="F6" s="15" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" ht="19" customHeight="1">
-      <c r="A7" t="s" s="10">
+    <row r="7" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s" s="11">
+      <c r="B7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s" s="11">
+      <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
-      <c r="F7" t="s" s="11">
+      <c r="F7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="5"/>
+      <c r="I7" s="27" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="8" ht="19" customHeight="1">
-      <c r="A8" t="s" s="18">
+    <row r="8" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="19"/>
@@ -1917,99 +1979,102 @@
       <c r="F8" s="19"/>
       <c r="G8" s="20"/>
       <c r="H8" s="5"/>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="9" ht="19" customHeight="1">
-      <c r="A9" t="s" s="10">
+    <row r="9" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s" s="11">
+      <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s" s="11">
+      <c r="C9" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" t="s" s="11">
+      <c r="E9" s="11"/>
+      <c r="F9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="12"/>
       <c r="G9" s="13"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" ht="19" customHeight="1">
-      <c r="A10" t="s" s="14">
+    <row r="10" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s" s="15">
+      <c r="B10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s" s="15">
+      <c r="C10" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="16"/>
-      <c r="E10" t="s" s="15">
+      <c r="E10" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" ht="19" customHeight="1">
-      <c r="A11" t="s" s="10">
+    <row r="11" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s" s="11">
+      <c r="B11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s" s="11">
+      <c r="C11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" t="s" s="11">
+      <c r="D11" s="12" t="s">
         <v>10</v>
       </c>
+      <c r="E11" s="11"/>
       <c r="F11" s="12"/>
       <c r="G11" s="13"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" ht="19" customHeight="1">
-      <c r="A12" t="s" s="14">
+    <row r="12" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s" s="15">
+      <c r="B12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s" s="15">
+      <c r="C12" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="16"/>
-      <c r="E12" t="s" s="15">
+      <c r="E12" s="15"/>
+      <c r="F12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="16"/>
       <c r="G12" s="17"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" ht="19" customHeight="1">
-      <c r="A13" t="s" s="10">
+    <row r="13" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s" s="11">
+      <c r="B13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="s" s="11">
+      <c r="C13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="12"/>
-      <c r="E13" t="s" s="11">
+      <c r="E13" s="11"/>
+      <c r="F13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" ht="19" customHeight="1">
-      <c r="A14" t="s" s="18">
+    <row r="14" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="19"/>
@@ -2020,68 +2085,98 @@
       <c r="G14" s="20"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" ht="19" customHeight="1">
-      <c r="A15" t="s" s="14">
+    <row r="15" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="B15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="17"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" ht="19" customHeight="1">
-      <c r="A16" t="s" s="10">
+    <row r="16" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="13"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" ht="19" customHeight="1">
-      <c r="A17" t="s" s="14">
+    <row r="17" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="B17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="17"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" ht="19" customHeight="1">
-      <c r="A18" t="s" s="10">
+    <row r="18" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>10</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="13"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" ht="19" customHeight="1">
-      <c r="A19" t="s" s="14">
+    <row r="19" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="B19" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" ht="19" customHeight="1">
-      <c r="A20" t="s" s="10">
+    <row r="20" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="12"/>
@@ -2092,8 +2187,8 @@
       <c r="G20" s="13"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" ht="19" customHeight="1">
-      <c r="A21" t="s" s="14">
+    <row r="21" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="16"/>
@@ -2104,7 +2199,7 @@
       <c r="G21" s="17"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" ht="19" customHeight="1">
+    <row r="22" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -2114,7 +2209,7 @@
       <c r="G22" s="23"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" ht="19" customHeight="1">
+    <row r="23" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
@@ -2126,7 +2221,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>

--- a/Scrum_Board.xlsx
+++ b/Scrum_Board.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\BeerTender\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="63">
   <si>
     <t>PRIORITY</t>
   </si>
@@ -147,12 +148,6 @@
     <t>3.5</t>
   </si>
   <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
     <t>cross compile module for pi</t>
   </si>
   <si>
@@ -178,13 +173,49 @@
   </si>
   <si>
     <t>Dennis</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>Revieuw diagrams</t>
+  </si>
+  <si>
+    <t>Jeroen model algoritme</t>
+  </si>
+  <si>
+    <t>PWM/ port layout</t>
+  </si>
+  <si>
+    <t>Interrupt pwm outputs</t>
+  </si>
+  <si>
+    <t>Soft PWM of timers</t>
+  </si>
+  <si>
+    <t>Bart/Robbert</t>
+  </si>
+  <si>
+    <t>Digital IN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -214,13 +245,19 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,6 +286,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="14"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -454,12 +497,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -472,32 +533,225 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -575,6 +829,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H26" totalsRowShown="0" dataDxfId="1">
+  <autoFilter ref="A1:H26"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="PRIORITY"/>
+    <tableColumn id="2" name="TASK DESCRIPTION " dataDxfId="7"/>
+    <tableColumn id="3" name="OWNER" dataDxfId="6"/>
+    <tableColumn id="4" name="TODO" dataDxfId="5"/>
+    <tableColumn id="5" name="DOING" dataDxfId="4"/>
+    <tableColumn id="6" name="DONE" dataDxfId="3"/>
+    <tableColumn id="7" name="HOURS" dataDxfId="2"/>
+    <tableColumn id="8" name="Backlog" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1821,19 +2092,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.8984375" style="1" customWidth="1"/>
-    <col min="4" max="256" width="8.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
+    <col min="4" max="256" width="8.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1857,7 +2128,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1875,332 +2146,334 @@
       <c r="G2" s="9"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:9" ht="19" customHeight="1">
+      <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="13"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="16"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:9" ht="19" customHeight="1">
+      <c r="A4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="19"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:9" ht="19" customHeight="1">
+      <c r="A5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="13"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="16"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:9" ht="19" customHeight="1">
+      <c r="A6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="19"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:9" ht="19" customHeight="1">
+      <c r="A7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="13"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="16"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="I7" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19" customHeight="1">
+      <c r="A8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="5"/>
       <c r="I8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:9" ht="19" customHeight="1">
+      <c r="A9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="13"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="16"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:9" ht="19" customHeight="1">
+      <c r="A10" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:9" ht="19" customHeight="1">
+      <c r="A11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
+      <c r="D11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:9" ht="19" customHeight="1">
+      <c r="A12" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="19"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:9" ht="19" customHeight="1">
+      <c r="A13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="13"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="16"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:9" ht="19" customHeight="1">
+      <c r="A14" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:9" ht="19" customHeight="1">
+      <c r="A15" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="19" customHeight="1">
+      <c r="A16" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="19" customHeight="1">
+      <c r="A17" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="C17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="19" customHeight="1">
+      <c r="A18" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="28" t="s">
+      <c r="C18" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="19" customHeight="1">
+      <c r="A19" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="29" t="s">
+      <c r="C19" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="28" t="s">
+      <c r="D19" s="18"/>
+      <c r="E19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="19" customHeight="1">
+      <c r="A20" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="19" customHeight="1">
+      <c r="A21" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="19" customHeight="1">
+      <c r="A22" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -2209,21 +2482,506 @@
       <c r="G22" s="23"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
+    <row r="23" spans="1:8" ht="19" customHeight="1">
+      <c r="A23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="1:8" s="29" customFormat="1">
+      <c r="A8" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="F9" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="F12" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="F13" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+    </row>
+    <row r="14" spans="1:8" s="29" customFormat="1">
+      <c r="A14" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="1:8" ht="32">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="1:8" s="29" customFormat="1">
+      <c r="A20" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+    </row>
+    <row r="26" spans="1:8" s="29" customFormat="1">
+      <c r="A26" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Scrum_Board.xlsx
+++ b/Scrum_Board.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="68">
   <si>
     <t>PRIORITY</t>
   </si>
@@ -209,6 +209,21 @@
   </si>
   <si>
     <t>Digital IN</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Interrupts</t>
+  </si>
+  <si>
+    <t>Bart/Robbert/Dennis</t>
   </si>
 </sst>
 </file>
@@ -634,6 +649,7 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -747,7 +763,6 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -832,16 +847,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H26" totalsRowShown="0" dataDxfId="1">
-  <autoFilter ref="A1:H26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H28" totalsRowShown="0" dataDxfId="7">
+  <autoFilter ref="A1:H28"/>
   <tableColumns count="8">
     <tableColumn id="1" name="PRIORITY"/>
-    <tableColumn id="2" name="TASK DESCRIPTION " dataDxfId="7"/>
-    <tableColumn id="3" name="OWNER" dataDxfId="6"/>
-    <tableColumn id="4" name="TODO" dataDxfId="5"/>
-    <tableColumn id="5" name="DOING" dataDxfId="4"/>
-    <tableColumn id="6" name="DONE" dataDxfId="3"/>
-    <tableColumn id="7" name="HOURS" dataDxfId="2"/>
+    <tableColumn id="2" name="TASK DESCRIPTION " dataDxfId="6"/>
+    <tableColumn id="3" name="OWNER" dataDxfId="5"/>
+    <tableColumn id="4" name="TODO" dataDxfId="4"/>
+    <tableColumn id="5" name="DOING" dataDxfId="3"/>
+    <tableColumn id="6" name="DONE" dataDxfId="2"/>
+    <tableColumn id="7" name="HOURS" dataDxfId="1"/>
     <tableColumn id="8" name="Backlog" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2510,10 +2525,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -2889,14 +2904,14 @@
       <c r="H21" s="28"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="28" t="s">
+      <c r="A22" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>10</v>
@@ -2910,10 +2925,10 @@
       <c r="A23" t="s">
         <v>53</v>
       </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="28" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="28" t="s">
@@ -2925,14 +2940,14 @@
       <c r="H23" s="28"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" t="s">
+      <c r="A24" s="28" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>10</v>
@@ -2946,11 +2961,11 @@
       <c r="A25" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>61</v>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>10</v>
@@ -2960,17 +2975,53 @@
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
     </row>
-    <row r="26" spans="1:8" s="29" customFormat="1">
-      <c r="A26" s="29" t="s">
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+    </row>
+    <row r="28" spans="1:8" s="29" customFormat="1">
+      <c r="A28" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Scrum_Board.xlsx
+++ b/Scrum_Board.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23913"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis Jessurun\Documents\GitHub\BeerTender\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="79">
   <si>
     <t>PRIORITY</t>
   </si>
@@ -224,6 +229,39 @@
   </si>
   <si>
     <t>Bart/Robbert/Dennis</t>
+  </si>
+  <si>
+    <t>clock manager</t>
+  </si>
+  <si>
+    <t>gyro/acc program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gyro/acc performance </t>
+  </si>
+  <si>
+    <t>motor pwm</t>
+  </si>
+  <si>
+    <t>algoritme scenario onder bepaalde hoek stabiliteit behouden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interfaces: essentiele onderdelen uit algoritme model: snelheid, versnelling, tijd </t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>essentieel: gyro/acc, pwm motor, algoritme, hardware</t>
+  </si>
+  <si>
+    <t>doel: balanceren (stilstaan)</t>
+  </si>
+  <si>
+    <t>3 drivers: pmw, gyro/acc, gpio</t>
+  </si>
+  <si>
+    <t>tussentijdse beoordeling: aangeven waar op beoordelen</t>
   </si>
 </sst>
 </file>
@@ -535,7 +573,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -603,15 +641,18 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -847,8 +888,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H28" totalsRowShown="0" dataDxfId="7">
-  <autoFilter ref="A1:H28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H43" totalsRowShown="0" dataDxfId="7">
+  <autoFilter ref="A1:H43"/>
   <tableColumns count="8">
     <tableColumn id="1" name="PRIORITY"/>
     <tableColumn id="2" name="TASK DESCRIPTION " dataDxfId="6"/>
@@ -2111,15 +2152,15 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
-    <col min="4" max="256" width="8.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.8984375" style="1" customWidth="1"/>
+    <col min="4" max="256" width="8.09765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" customHeight="1">
+    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2143,7 +2184,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -2161,7 +2202,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="19" customHeight="1">
+    <row r="3" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
@@ -2179,7 +2220,7 @@
       <c r="G3" s="16"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="19" customHeight="1">
+    <row r="4" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>14</v>
       </c>
@@ -2197,7 +2238,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="19" customHeight="1">
+    <row r="5" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>17</v>
       </c>
@@ -2215,7 +2256,7 @@
       <c r="G5" s="16"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="19" customHeight="1">
+    <row r="6" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>19</v>
       </c>
@@ -2233,7 +2274,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="19" customHeight="1">
+    <row r="7" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>22</v>
       </c>
@@ -2254,7 +2295,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="19" customHeight="1">
+    <row r="8" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>24</v>
       </c>
@@ -2269,7 +2310,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="19" customHeight="1">
+    <row r="9" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>25</v>
       </c>
@@ -2287,7 +2328,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="19" customHeight="1">
+    <row r="10" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>27</v>
       </c>
@@ -2305,7 +2346,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="19" customHeight="1">
+    <row r="11" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>29</v>
       </c>
@@ -2323,7 +2364,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="19" customHeight="1">
+    <row r="12" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>31</v>
       </c>
@@ -2341,7 +2382,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="19" customHeight="1">
+    <row r="13" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>34</v>
       </c>
@@ -2359,7 +2400,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="19" customHeight="1">
+    <row r="14" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>24</v>
       </c>
@@ -2371,7 +2412,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="19" customHeight="1">
+    <row r="15" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>37</v>
       </c>
@@ -2389,7 +2430,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="19" customHeight="1">
+    <row r="16" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>38</v>
       </c>
@@ -2407,7 +2448,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="19" customHeight="1">
+    <row r="17" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>39</v>
       </c>
@@ -2425,7 +2466,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="19" customHeight="1">
+    <row r="18" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>40</v>
       </c>
@@ -2443,7 +2484,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" ht="19" customHeight="1">
+    <row r="19" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>41</v>
       </c>
@@ -2461,7 +2502,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="19" customHeight="1">
+    <row r="20" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>24</v>
       </c>
@@ -2473,7 +2514,7 @@
       <c r="G20" s="21"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="19" customHeight="1">
+    <row r="21" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>51</v>
       </c>
@@ -2485,7 +2526,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="19" customHeight="1">
+    <row r="22" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>52</v>
       </c>
@@ -2497,7 +2538,7 @@
       <c r="G22" s="23"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="19" customHeight="1">
+    <row r="23" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>53</v>
       </c>
@@ -2525,19 +2566,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="17.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2563,7 +2604,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2581,7 +2622,7 @@
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2599,7 +2640,7 @@
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2617,7 +2658,7 @@
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2635,7 +2676,7 @@
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2653,7 +2694,7 @@
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2671,7 +2712,7 @@
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:8" s="29" customFormat="1">
+    <row r="8" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
         <v>24</v>
       </c>
@@ -2685,7 +2726,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2702,7 +2743,7 @@
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2720,7 +2761,7 @@
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2737,7 +2778,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -2754,7 +2795,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2771,7 +2812,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
     </row>
-    <row r="14" spans="1:8" s="29" customFormat="1">
+    <row r="14" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
         <v>24</v>
       </c>
@@ -2783,7 +2824,7 @@
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
     </row>
-    <row r="15" spans="1:8" ht="32">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -2801,7 +2842,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2819,7 +2860,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2837,7 +2878,7 @@
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -2855,7 +2896,7 @@
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -2873,7 +2914,7 @@
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
     </row>
-    <row r="20" spans="1:8" s="29" customFormat="1">
+    <row r="20" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="29" t="s">
         <v>24</v>
       </c>
@@ -2885,7 +2926,7 @@
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -2903,7 +2944,7 @@
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -2921,7 +2962,7 @@
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -2939,7 +2980,7 @@
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
         <v>54</v>
       </c>
@@ -2957,7 +2998,7 @@
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -2975,7 +3016,7 @@
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -2993,7 +3034,7 @@
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -3011,7 +3052,7 @@
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
     </row>
-    <row r="28" spans="1:8" s="29" customFormat="1">
+    <row r="28" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
         <v>24</v>
       </c>
@@ -3022,6 +3063,177 @@
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+    </row>
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="B33" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+    </row>
+    <row r="34" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+      <c r="A34" s="31"/>
+      <c r="B34" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="31">
+        <v>42204</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+    </row>
+    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="B39" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+    </row>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="B40" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="B41" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+    </row>
+    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="B43" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Scrum_Board.xlsx
+++ b/Scrum_Board.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="79">
   <si>
     <t>PRIORITY</t>
   </si>
@@ -2568,8 +2568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2936,10 +2936,10 @@
       <c r="C21" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -2954,11 +2954,11 @@
       <c r="C22" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="28" t="s">
-        <v>10</v>
-      </c>
+      <c r="D22" s="28"/>
       <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
+      <c r="F22" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
     </row>
@@ -2972,10 +2972,10 @@
       <c r="C23" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -2990,11 +2990,11 @@
       <c r="C24" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="28" t="s">
-        <v>10</v>
-      </c>
+      <c r="D24" s="28"/>
       <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
+      <c r="F24" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
     </row>
@@ -3008,10 +3008,10 @@
       <c r="C25" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
@@ -3026,11 +3026,11 @@
       <c r="C26" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="28" t="s">
-        <v>10</v>
-      </c>
+      <c r="D26" s="28"/>
       <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
+      <c r="F26" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
     </row>
@@ -3044,11 +3044,11 @@
       <c r="C27" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="28" t="s">
-        <v>10</v>
-      </c>
+      <c r="D27" s="28"/>
       <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
+      <c r="F27" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
     </row>
@@ -3073,7 +3073,9 @@
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
+      <c r="F29" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
     </row>
@@ -3085,7 +3087,9 @@
         <v>47</v>
       </c>
       <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
+      <c r="E30" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
@@ -3095,7 +3099,9 @@
         <v>70</v>
       </c>
       <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
+      <c r="D31" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
@@ -3110,7 +3116,9 @@
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="F32" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
     </row>
@@ -3122,7 +3130,9 @@
         <v>48</v>
       </c>
       <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
+      <c r="E33" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
@@ -3135,7 +3145,9 @@
       <c r="C34" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="28"/>
+      <c r="D34" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>

--- a/Scrum_Board.xlsx
+++ b/Scrum_Board.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="79">
   <si>
     <t>PRIORITY</t>
   </si>
@@ -268,7 +268,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -309,8 +309,13 @@
       <color theme="11"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,8 +352,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -549,6 +566,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -573,7 +642,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -642,6 +711,27 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2566,10 +2656,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3009,10 +3099,10 @@
         <v>16</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
     </row>
@@ -3122,7 +3212,7 @@
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
     </row>
-    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="B33" s="28" t="s">
         <v>72</v>
       </c>
@@ -3137,7 +3227,7 @@
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
     </row>
-    <row r="34" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="75" x14ac:dyDescent="0.2">
       <c r="A34" s="31"/>
       <c r="B34" s="28" t="s">
         <v>73</v>
@@ -3145,24 +3235,27 @@
       <c r="C34" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
@@ -3171,7 +3264,7 @@
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
@@ -3180,13 +3273,8 @@
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="31">
-        <v>42204</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>74</v>
-      </c>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B38" s="28"/>
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
       <c r="E38" s="28"/>
@@ -3194,10 +3282,8 @@
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
     </row>
-    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="B39" s="28" t="s">
-        <v>75</v>
-      </c>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B39" s="28"/>
       <c r="C39" s="28"/>
       <c r="D39" s="28"/>
       <c r="E39" s="28"/>
@@ -3205,29 +3291,35 @@
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
     </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B40" s="28" t="s">
-        <v>76</v>
-      </c>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B40" s="28"/>
       <c r="C40" s="28"/>
       <c r="D40" s="28"/>
       <c r="E40" s="28"/>
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
-    </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B41" s="28" t="s">
-        <v>77</v>
-      </c>
+      <c r="K40" s="36">
+        <v>42204</v>
+      </c>
+      <c r="L40" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="75" x14ac:dyDescent="0.2">
+      <c r="B41" s="28"/>
       <c r="C41" s="28"/>
       <c r="D41" s="28"/>
       <c r="E41" s="28"/>
       <c r="F41" s="28"/>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K41" s="32"/>
+      <c r="L41" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
@@ -3235,17 +3327,33 @@
       <c r="F42" s="28"/>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
-    </row>
-    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="B43" s="28" t="s">
-        <v>78</v>
-      </c>
+      <c r="K42" s="34"/>
+      <c r="L42" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="B43" s="28"/>
       <c r="C43" s="28"/>
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
       <c r="G43" s="28"/>
       <c r="H43" s="28"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K44" s="34"/>
+      <c r="L44" s="35"/>
+    </row>
+    <row r="45" spans="1:12" ht="75" x14ac:dyDescent="0.2">
+      <c r="K45" s="37"/>
+      <c r="L45" s="38" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Scrum_Board.xlsx
+++ b/Scrum_Board.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="100">
   <si>
     <t>PRIORITY</t>
   </si>
@@ -262,6 +262,69 @@
   </si>
   <si>
     <t>tussentijdse beoordeling: aangeven waar op beoordelen</t>
+  </si>
+  <si>
+    <t>gyro/acc</t>
+  </si>
+  <si>
+    <t>algoritme</t>
+  </si>
+  <si>
+    <t>bier sensor</t>
+  </si>
+  <si>
+    <t>interfaces</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>pwm module</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>r/d</t>
+  </si>
+  <si>
+    <t>Blocking!</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>6.5</t>
   </si>
 </sst>
 </file>
@@ -642,7 +705,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -710,9 +773,6 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -744,7 +804,26 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -978,17 +1057,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H43" totalsRowShown="0" dataDxfId="7">
-  <autoFilter ref="A1:H43"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I43" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:I43"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="PRIORITY"/>
-    <tableColumn id="2" name="TASK DESCRIPTION " dataDxfId="6"/>
-    <tableColumn id="3" name="OWNER" dataDxfId="5"/>
-    <tableColumn id="4" name="TODO" dataDxfId="4"/>
-    <tableColumn id="5" name="DOING" dataDxfId="3"/>
-    <tableColumn id="6" name="DONE" dataDxfId="2"/>
-    <tableColumn id="7" name="HOURS" dataDxfId="1"/>
-    <tableColumn id="8" name="Backlog" dataDxfId="0"/>
+    <tableColumn id="2" name="TASK DESCRIPTION " dataDxfId="7"/>
+    <tableColumn id="3" name="OWNER" dataDxfId="6"/>
+    <tableColumn id="4" name="TODO" dataDxfId="5"/>
+    <tableColumn id="5" name="DOING" dataDxfId="4"/>
+    <tableColumn id="6" name="DONE" dataDxfId="3"/>
+    <tableColumn id="7" name="HOURS" dataDxfId="2"/>
+    <tableColumn id="8" name="Backlog" dataDxfId="1"/>
+    <tableColumn id="9" name="Blocking!" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2656,19 +2736,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.09765625" customWidth="1"/>
+    <col min="12" max="12" width="25.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2693,8 +2774,11 @@
       <c r="H1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2711,8 +2795,9 @@
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2729,8 +2814,9 @@
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2747,8 +2833,9 @@
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2765,8 +2852,9 @@
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2783,8 +2871,9 @@
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2801,8 +2890,9 @@
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
-    </row>
-    <row r="8" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
         <v>24</v>
       </c>
@@ -2815,8 +2905,9 @@
       <c r="H8" s="30" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="30"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2832,8 +2923,9 @@
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2850,8 +2942,9 @@
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2867,8 +2960,9 @@
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -2884,8 +2978,9 @@
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2901,8 +2996,9 @@
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
-    </row>
-    <row r="14" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
         <v>24</v>
       </c>
@@ -2913,8 +3009,9 @@
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I14" s="30"/>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -2931,8 +3028,9 @@
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="28"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2949,8 +3047,9 @@
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2961,14 +3060,15 @@
         <v>47</v>
       </c>
       <c r="D17" s="28"/>
-      <c r="E17" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="28"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -2985,8 +3085,9 @@
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="28"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -3003,8 +3104,9 @@
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
-    </row>
-    <row r="20" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="28"/>
+    </row>
+    <row r="20" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="29" t="s">
         <v>24</v>
       </c>
@@ -3015,8 +3117,9 @@
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="30"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -3027,14 +3130,15 @@
         <v>33</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I21" s="28"/>
+    </row>
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -3051,8 +3155,9 @@
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="28"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -3069,8 +3174,9 @@
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
-    </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
         <v>54</v>
       </c>
@@ -3087,8 +3193,9 @@
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="28"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -3105,8 +3212,9 @@
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="28"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -3123,8 +3231,9 @@
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="28"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -3141,8 +3250,9 @@
       </c>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
-    </row>
-    <row r="28" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I27" s="28"/>
+    </row>
+    <row r="28" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
         <v>24</v>
       </c>
@@ -3153,8 +3263,12 @@
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="30"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>89</v>
+      </c>
       <c r="B29" s="28" t="s">
         <v>68</v>
       </c>
@@ -3168,8 +3282,12 @@
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="28"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
       <c r="B30" s="28" t="s">
         <v>69</v>
       </c>
@@ -3183,8 +3301,12 @@
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="28"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
       <c r="B31" s="28" t="s">
         <v>70</v>
       </c>
@@ -3196,8 +3318,12 @@
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" s="28"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
       <c r="B32" s="28" t="s">
         <v>71</v>
       </c>
@@ -3211,8 +3337,12 @@
       </c>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
     </row>
     <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>93</v>
+      </c>
       <c r="B33" s="28" t="s">
         <v>72</v>
       </c>
@@ -3226,9 +3356,12 @@
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
     </row>
     <row r="34" spans="1:12" ht="75" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
+      <c r="A34" t="s">
+        <v>94</v>
+      </c>
       <c r="B34" s="28" t="s">
         <v>73</v>
       </c>
@@ -3242,6 +3375,7 @@
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
     </row>
     <row r="35" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="29" t="s">
@@ -3254,72 +3388,117 @@
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
+      <c r="A36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>87</v>
+      </c>
       <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
+      <c r="E36" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
+      <c r="A37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>86</v>
+      </c>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
+      <c r="I37" s="28" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>86</v>
+      </c>
       <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
+      <c r="E38" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="F38" s="28"/>
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>83</v>
+      </c>
       <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
+      <c r="E39" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="F39" s="28"/>
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
+      <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
+      <c r="E40" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
-      <c r="K40" s="36">
-        <v>42204</v>
-      </c>
-      <c r="L40" s="35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="75" x14ac:dyDescent="0.2">
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="I40" s="28"/>
+    </row>
+    <row r="41" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
@@ -3327,12 +3506,9 @@
       <c r="F42" s="28"/>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="I42" s="28"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
       <c r="D43" s="28"/>
@@ -3340,18 +3516,41 @@
       <c r="F43" s="28"/>
       <c r="G43" s="28"/>
       <c r="H43" s="28"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="33" t="s">
+      <c r="I43" s="28"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K47" s="35">
+        <v>42204</v>
+      </c>
+      <c r="L47" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="K48" s="31"/>
+      <c r="L48" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K49" s="33"/>
+      <c r="L49" s="34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="11:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="K50" s="31"/>
+      <c r="L50" s="32" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K44" s="34"/>
-      <c r="L44" s="35"/>
-    </row>
-    <row r="45" spans="1:12" ht="75" x14ac:dyDescent="0.2">
-      <c r="K45" s="37"/>
-      <c r="L45" s="38" t="s">
+    <row r="51" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K51" s="33"/>
+      <c r="L51" s="34"/>
+    </row>
+    <row r="52" spans="11:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="K52" s="36"/>
+      <c r="L52" s="37" t="s">
         <v>78</v>
       </c>
     </row>

--- a/Scrum_Board.xlsx
+++ b/Scrum_Board.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis Jessurun\Documents\GitHub\BeerTender\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="1005" yWindow="0" windowWidth="21570" windowHeight="8610" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="109">
   <si>
     <t>PRIORITY</t>
   </si>
@@ -325,6 +325,33 @@
   </si>
   <si>
     <t>6.5</t>
+  </si>
+  <si>
+    <t>solderen MPU6050 (1/2)</t>
+  </si>
+  <si>
+    <t>stabiliseren output (4)</t>
+  </si>
+  <si>
+    <t>normaliseren output (8)</t>
+  </si>
+  <si>
+    <t>stub kernel module (4)</t>
+  </si>
+  <si>
+    <t>pwm module (16)</t>
+  </si>
+  <si>
+    <t>PID gain var opstart (4)</t>
+  </si>
+  <si>
+    <t>PID setp, procvar input (4)</t>
+  </si>
+  <si>
+    <t>PID output (8)</t>
+  </si>
+  <si>
+    <t>User space aanroepen PID (4)</t>
   </si>
 </sst>
 </file>
@@ -1057,8 +1084,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I43" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:I43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I50" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:I50"/>
   <tableColumns count="9">
     <tableColumn id="1" name="PRIORITY"/>
     <tableColumn id="2" name="TASK DESCRIPTION " dataDxfId="7"/>
@@ -2738,7 +2765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -3295,10 +3322,10 @@
         <v>47</v>
       </c>
       <c r="D30" s="28"/>
-      <c r="E30" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
@@ -3350,10 +3377,10 @@
         <v>48</v>
       </c>
       <c r="D33" s="28"/>
-      <c r="E33" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
@@ -3368,10 +3395,10 @@
       <c r="C34" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28" t="s">
-        <v>10</v>
-      </c>
+      <c r="D34" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="28"/>
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
@@ -3401,10 +3428,10 @@
         <v>87</v>
       </c>
       <c r="D36" s="28"/>
-      <c r="E36" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
@@ -3435,14 +3462,12 @@
       <c r="B38" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="28" t="s">
-        <v>86</v>
-      </c>
+      <c r="C38" s="28"/>
       <c r="D38" s="28"/>
-      <c r="E38" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
@@ -3457,10 +3482,10 @@
       <c r="C39" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28" t="s">
-        <v>10</v>
-      </c>
+      <c r="D39" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="28"/>
       <c r="F39" s="28"/>
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
@@ -3498,10 +3523,16 @@
       <c r="H41" s="30"/>
       <c r="I41" s="30"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
+    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="B42" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="E42" s="28"/>
       <c r="F42" s="28"/>
       <c r="G42" s="28"/>
@@ -3509,16 +3540,84 @@
       <c r="I42" s="28"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
+      <c r="B43" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
       <c r="G43" s="28"/>
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="B44" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B45" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B46" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+    </row>
+    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="B47" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
       <c r="K47" s="35">
         <v>42204</v>
       </c>
@@ -3527,28 +3626,70 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="B48" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
       <c r="K48" s="31"/>
       <c r="L48" s="32" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B49" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
       <c r="K49" s="33"/>
       <c r="L49" s="34" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="11:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="B50" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
       <c r="K50" s="31"/>
       <c r="L50" s="32" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="K51" s="33"/>
       <c r="L51" s="34"/>
     </row>
-    <row r="52" spans="11:12" ht="45" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:12" ht="45" x14ac:dyDescent="0.2">
       <c r="K52" s="36"/>
       <c r="L52" s="37" t="s">
         <v>78</v>

--- a/Scrum_Board.xlsx
+++ b/Scrum_Board.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23913"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="0" windowWidth="21570" windowHeight="8610" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="21140" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="113">
   <si>
     <t>PRIORITY</t>
   </si>
@@ -352,6 +347,18 @@
   </si>
   <si>
     <t>User space aanroepen PID (4)</t>
+  </si>
+  <si>
+    <t>Dennis/robbert</t>
+  </si>
+  <si>
+    <t>X (RB)</t>
+  </si>
+  <si>
+    <t>Documentatie PID (2)</t>
+  </si>
+  <si>
+    <t>Documentatie ACCL. (2)</t>
   </si>
 </sst>
 </file>
@@ -709,7 +716,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -731,8 +738,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -821,15 +840,25 @@
     <xf numFmtId="1" fontId="7" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -1084,8 +1113,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I50" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:I50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I52" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:I52"/>
   <tableColumns count="9">
     <tableColumn id="1" name="PRIORITY"/>
     <tableColumn id="2" name="TASK DESCRIPTION " dataDxfId="7"/>
@@ -2349,15 +2378,15 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.8984375" style="1" customWidth="1"/>
-    <col min="4" max="256" width="8.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
+    <col min="4" max="256" width="8.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2381,7 +2410,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -2399,7 +2428,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="19" customHeight="1">
       <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
@@ -2417,7 +2446,7 @@
       <c r="G3" s="16"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="19" customHeight="1">
       <c r="A4" s="25" t="s">
         <v>14</v>
       </c>
@@ -2435,7 +2464,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="19" customHeight="1">
       <c r="A5" s="24" t="s">
         <v>17</v>
       </c>
@@ -2453,7 +2482,7 @@
       <c r="G5" s="16"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="19" customHeight="1">
       <c r="A6" s="25" t="s">
         <v>19</v>
       </c>
@@ -2471,7 +2500,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="19" customHeight="1">
       <c r="A7" s="24" t="s">
         <v>22</v>
       </c>
@@ -2492,7 +2521,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="19" customHeight="1">
       <c r="A8" s="26" t="s">
         <v>24</v>
       </c>
@@ -2507,7 +2536,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="19" customHeight="1">
       <c r="A9" s="24" t="s">
         <v>25</v>
       </c>
@@ -2525,7 +2554,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="19" customHeight="1">
       <c r="A10" s="25" t="s">
         <v>27</v>
       </c>
@@ -2543,7 +2572,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="19" customHeight="1">
       <c r="A11" s="24" t="s">
         <v>29</v>
       </c>
@@ -2561,7 +2590,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="19" customHeight="1">
       <c r="A12" s="25" t="s">
         <v>31</v>
       </c>
@@ -2579,7 +2608,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="19" customHeight="1">
       <c r="A13" s="24" t="s">
         <v>34</v>
       </c>
@@ -2597,7 +2626,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="19" customHeight="1">
       <c r="A14" s="26" t="s">
         <v>24</v>
       </c>
@@ -2609,7 +2638,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="19" customHeight="1">
       <c r="A15" s="25" t="s">
         <v>37</v>
       </c>
@@ -2627,7 +2656,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="19" customHeight="1">
       <c r="A16" s="24" t="s">
         <v>38</v>
       </c>
@@ -2645,7 +2674,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="19" customHeight="1">
       <c r="A17" s="25" t="s">
         <v>39</v>
       </c>
@@ -2663,7 +2692,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="19" customHeight="1">
       <c r="A18" s="24" t="s">
         <v>40</v>
       </c>
@@ -2681,7 +2710,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="19" customHeight="1">
       <c r="A19" s="25" t="s">
         <v>41</v>
       </c>
@@ -2699,7 +2728,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="19" customHeight="1">
       <c r="A20" s="26" t="s">
         <v>24</v>
       </c>
@@ -2711,7 +2740,7 @@
       <c r="G20" s="21"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="19" customHeight="1">
       <c r="A21" s="25" t="s">
         <v>51</v>
       </c>
@@ -2723,7 +2752,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="19" customHeight="1">
       <c r="A22" s="27" t="s">
         <v>52</v>
       </c>
@@ -2735,7 +2764,7 @@
       <c r="G22" s="23"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="19" customHeight="1">
       <c r="A23" s="10" t="s">
         <v>53</v>
       </c>
@@ -2763,20 +2792,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.09765625" customWidth="1"/>
-    <col min="12" max="12" width="25.59765625" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="12" max="12" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2805,7 +2834,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2824,7 +2853,7 @@
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2843,7 +2872,7 @@
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2862,7 +2891,7 @@
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2881,7 +2910,7 @@
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2900,7 +2929,7 @@
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2919,7 +2948,7 @@
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
     </row>
-    <row r="8" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="29" customFormat="1">
       <c r="A8" s="29" t="s">
         <v>24</v>
       </c>
@@ -2934,7 +2963,7 @@
       </c>
       <c r="I8" s="30"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2952,7 +2981,7 @@
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2971,7 +3000,7 @@
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2989,7 +3018,7 @@
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -3007,7 +3036,7 @@
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -3025,7 +3054,7 @@
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
     </row>
-    <row r="14" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="29" customFormat="1">
       <c r="A14" s="29" t="s">
         <v>24</v>
       </c>
@@ -3038,7 +3067,7 @@
       <c r="H14" s="30"/>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="32">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -3057,7 +3086,7 @@
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -3076,7 +3105,7 @@
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -3095,7 +3124,7 @@
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -3114,7 +3143,7 @@
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -3133,7 +3162,7 @@
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
     </row>
-    <row r="20" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="29" customFormat="1">
       <c r="A20" s="29" t="s">
         <v>24</v>
       </c>
@@ -3146,7 +3175,7 @@
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -3165,7 +3194,7 @@
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
     </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -3184,7 +3213,7 @@
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -3203,7 +3232,7 @@
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
     </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="28" t="s">
         <v>54</v>
       </c>
@@ -3222,7 +3251,7 @@
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -3241,7 +3270,7 @@
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -3260,7 +3289,7 @@
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -3279,7 +3308,7 @@
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
     </row>
-    <row r="28" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" s="29" customFormat="1">
       <c r="A28" s="29" t="s">
         <v>24</v>
       </c>
@@ -3292,7 +3321,7 @@
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -3311,7 +3340,7 @@
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -3330,7 +3359,7 @@
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -3347,7 +3376,7 @@
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -3366,7 +3395,7 @@
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
     </row>
-    <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="48">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -3385,7 +3414,7 @@
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
     </row>
-    <row r="34" spans="1:12" ht="75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="64">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -3404,7 +3433,7 @@
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
     </row>
-    <row r="35" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" s="29" customFormat="1">
       <c r="A35" s="29" t="s">
         <v>24</v>
       </c>
@@ -3417,7 +3446,7 @@
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -3436,7 +3465,7 @@
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -3455,7 +3484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -3472,7 +3501,7 @@
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -3491,7 +3520,7 @@
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -3510,7 +3539,7 @@
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
     </row>
-    <row r="41" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" s="29" customFormat="1">
       <c r="A41" s="29" t="s">
         <v>24</v>
       </c>
@@ -3523,76 +3552,76 @@
       <c r="H41" s="30"/>
       <c r="I41" s="30"/>
     </row>
-    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12">
       <c r="B42" s="28" t="s">
         <v>100</v>
       </c>
       <c r="C42" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="28" t="s">
-        <v>10</v>
-      </c>
+      <c r="D42" s="28"/>
       <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
+      <c r="F42" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
       <c r="I42" s="28"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12">
       <c r="B43" s="28" t="s">
         <v>101</v>
       </c>
       <c r="C43" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="28" t="s">
-        <v>10</v>
-      </c>
+      <c r="D43" s="28"/>
       <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
+      <c r="F43" s="28" t="s">
+        <v>110</v>
+      </c>
       <c r="G43" s="28"/>
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
     </row>
-    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12">
       <c r="B44" s="28" t="s">
         <v>102</v>
       </c>
       <c r="C44" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="28" t="s">
-        <v>10</v>
-      </c>
+      <c r="D44" s="28"/>
       <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
+      <c r="F44" s="28" t="s">
+        <v>110</v>
+      </c>
       <c r="G44" s="28"/>
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12">
       <c r="B45" s="28" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="28"/>
+        <v>109</v>
+      </c>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="F45" s="28"/>
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12">
       <c r="B46" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D46" s="28"/>
       <c r="E46" s="28" t="s">
@@ -3603,95 +3632,126 @@
       <c r="H46" s="28"/>
       <c r="I46" s="28"/>
     </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12">
       <c r="B47" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="28"/>
+        <v>13</v>
+      </c>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="F47" s="28"/>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
-      <c r="K47" s="35">
-        <v>42204</v>
-      </c>
-      <c r="L47" s="34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:12">
       <c r="B48" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C48" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="28" t="s">
-        <v>10</v>
-      </c>
+      <c r="D48" s="28"/>
       <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
+      <c r="F48" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
       <c r="I48" s="28"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K48" s="35">
+        <v>42204</v>
+      </c>
+      <c r="L48" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="32">
       <c r="B49" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C49" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="28" t="s">
-        <v>10</v>
-      </c>
+      <c r="D49" s="28"/>
       <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
+      <c r="F49" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
       <c r="I49" s="28"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="K49" s="31"/>
+      <c r="L49" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="B50" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C50" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="28" t="s">
-        <v>10</v>
-      </c>
+      <c r="D50" s="28"/>
       <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
+      <c r="F50" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
       <c r="I50" s="28"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="32" t="s">
+      <c r="K50" s="33"/>
+      <c r="L50" s="34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="32">
+      <c r="B51" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="32" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="K51" s="33"/>
-      <c r="L51" s="34"/>
-    </row>
-    <row r="52" spans="2:12" ht="45" x14ac:dyDescent="0.2">
-      <c r="K52" s="36"/>
-      <c r="L52" s="37" t="s">
+    <row r="52" spans="1:12">
+      <c r="A52" s="38"/>
+      <c r="B52" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="34"/>
+    </row>
+    <row r="53" spans="1:12" ht="32">
+      <c r="K53" s="36"/>
+      <c r="L53" s="37" t="s">
         <v>78</v>
       </c>
     </row>

--- a/Scrum_Board.xlsx
+++ b/Scrum_Board.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23913"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="0" windowWidth="21570" windowHeight="8610" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="115">
   <si>
     <t>PRIORITY</t>
   </si>
@@ -352,6 +347,24 @@
   </si>
   <si>
     <t>User space aanroepen PID (4)</t>
+  </si>
+  <si>
+    <t>Dennis/robbert</t>
+  </si>
+  <si>
+    <t>X (RB)</t>
+  </si>
+  <si>
+    <t>Documentatie PID (2)</t>
+  </si>
+  <si>
+    <t>Documentatie ACCL. (2)</t>
+  </si>
+  <si>
+    <t>Documentatie overview (8)</t>
+  </si>
+  <si>
+    <t>DetectieSensor(8)</t>
   </si>
 </sst>
 </file>
@@ -709,7 +722,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -731,8 +744,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -821,15 +846,25 @@
     <xf numFmtId="1" fontId="7" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -1084,8 +1119,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I50" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:I50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I54" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:I54"/>
   <tableColumns count="9">
     <tableColumn id="1" name="PRIORITY"/>
     <tableColumn id="2" name="TASK DESCRIPTION " dataDxfId="7"/>
@@ -2349,15 +2384,15 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.8984375" style="1" customWidth="1"/>
-    <col min="4" max="256" width="8.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
+    <col min="4" max="256" width="8.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2381,7 +2416,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="20" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -2399,7 +2434,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="19" customHeight="1">
       <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
@@ -2417,7 +2452,7 @@
       <c r="G3" s="16"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="19" customHeight="1">
       <c r="A4" s="25" t="s">
         <v>14</v>
       </c>
@@ -2435,7 +2470,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="19" customHeight="1">
       <c r="A5" s="24" t="s">
         <v>17</v>
       </c>
@@ -2453,7 +2488,7 @@
       <c r="G5" s="16"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="19" customHeight="1">
       <c r="A6" s="25" t="s">
         <v>19</v>
       </c>
@@ -2471,7 +2506,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="19" customHeight="1">
       <c r="A7" s="24" t="s">
         <v>22</v>
       </c>
@@ -2492,7 +2527,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="19" customHeight="1">
       <c r="A8" s="26" t="s">
         <v>24</v>
       </c>
@@ -2507,7 +2542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="19" customHeight="1">
       <c r="A9" s="24" t="s">
         <v>25</v>
       </c>
@@ -2525,7 +2560,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="19" customHeight="1">
       <c r="A10" s="25" t="s">
         <v>27</v>
       </c>
@@ -2543,7 +2578,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="19" customHeight="1">
       <c r="A11" s="24" t="s">
         <v>29</v>
       </c>
@@ -2561,7 +2596,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="19" customHeight="1">
       <c r="A12" s="25" t="s">
         <v>31</v>
       </c>
@@ -2579,7 +2614,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="19" customHeight="1">
       <c r="A13" s="24" t="s">
         <v>34</v>
       </c>
@@ -2597,7 +2632,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="19" customHeight="1">
       <c r="A14" s="26" t="s">
         <v>24</v>
       </c>
@@ -2609,7 +2644,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="19" customHeight="1">
       <c r="A15" s="25" t="s">
         <v>37</v>
       </c>
@@ -2627,7 +2662,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="19" customHeight="1">
       <c r="A16" s="24" t="s">
         <v>38</v>
       </c>
@@ -2645,7 +2680,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="19" customHeight="1">
       <c r="A17" s="25" t="s">
         <v>39</v>
       </c>
@@ -2663,7 +2698,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="19" customHeight="1">
       <c r="A18" s="24" t="s">
         <v>40</v>
       </c>
@@ -2681,7 +2716,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="19" customHeight="1">
       <c r="A19" s="25" t="s">
         <v>41</v>
       </c>
@@ -2699,7 +2734,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="19" customHeight="1">
       <c r="A20" s="26" t="s">
         <v>24</v>
       </c>
@@ -2711,7 +2746,7 @@
       <c r="G20" s="21"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="19" customHeight="1">
       <c r="A21" s="25" t="s">
         <v>51</v>
       </c>
@@ -2723,7 +2758,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="19" customHeight="1">
       <c r="A22" s="27" t="s">
         <v>52</v>
       </c>
@@ -2735,7 +2770,7 @@
       <c r="G22" s="23"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="19" customHeight="1">
       <c r="A23" s="10" t="s">
         <v>53</v>
       </c>
@@ -2763,20 +2798,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.09765625" customWidth="1"/>
-    <col min="12" max="12" width="25.59765625" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="12" max="12" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2805,7 +2840,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2824,7 +2859,7 @@
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2843,7 +2878,7 @@
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2862,7 +2897,7 @@
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2881,7 +2916,7 @@
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2900,7 +2935,7 @@
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2919,7 +2954,7 @@
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
     </row>
-    <row r="8" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="29" customFormat="1">
       <c r="A8" s="29" t="s">
         <v>24</v>
       </c>
@@ -2934,7 +2969,7 @@
       </c>
       <c r="I8" s="30"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2952,7 +2987,7 @@
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2971,7 +3006,7 @@
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2989,7 +3024,7 @@
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -3007,7 +3042,7 @@
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -3025,7 +3060,7 @@
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
     </row>
-    <row r="14" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="29" customFormat="1">
       <c r="A14" s="29" t="s">
         <v>24</v>
       </c>
@@ -3038,7 +3073,7 @@
       <c r="H14" s="30"/>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="32">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -3057,7 +3092,7 @@
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -3076,7 +3111,7 @@
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -3095,7 +3130,7 @@
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -3114,7 +3149,7 @@
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -3133,7 +3168,7 @@
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
     </row>
-    <row r="20" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="29" customFormat="1">
       <c r="A20" s="29" t="s">
         <v>24</v>
       </c>
@@ -3146,7 +3181,7 @@
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -3165,7 +3200,7 @@
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
     </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -3184,7 +3219,7 @@
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -3203,7 +3238,7 @@
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
     </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="28" t="s">
         <v>54</v>
       </c>
@@ -3222,7 +3257,7 @@
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -3241,7 +3276,7 @@
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -3260,7 +3295,7 @@
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -3279,7 +3314,7 @@
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
     </row>
-    <row r="28" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" s="29" customFormat="1">
       <c r="A28" s="29" t="s">
         <v>24</v>
       </c>
@@ -3292,7 +3327,7 @@
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -3311,7 +3346,7 @@
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -3330,7 +3365,7 @@
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -3347,7 +3382,7 @@
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -3366,7 +3401,7 @@
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
     </row>
-    <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="48">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -3385,7 +3420,7 @@
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
     </row>
-    <row r="34" spans="1:12" ht="75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="64">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -3404,7 +3439,7 @@
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
     </row>
-    <row r="35" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" s="29" customFormat="1">
       <c r="A35" s="29" t="s">
         <v>24</v>
       </c>
@@ -3417,7 +3452,7 @@
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -3436,7 +3471,7 @@
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -3455,7 +3490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -3472,7 +3507,7 @@
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -3491,7 +3526,7 @@
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -3510,7 +3545,7 @@
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
     </row>
-    <row r="41" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" s="29" customFormat="1">
       <c r="A41" s="29" t="s">
         <v>24</v>
       </c>
@@ -3523,76 +3558,76 @@
       <c r="H41" s="30"/>
       <c r="I41" s="30"/>
     </row>
-    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12">
       <c r="B42" s="28" t="s">
         <v>100</v>
       </c>
       <c r="C42" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="28" t="s">
-        <v>10</v>
-      </c>
+      <c r="D42" s="28"/>
       <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
+      <c r="F42" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
       <c r="I42" s="28"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12">
       <c r="B43" s="28" t="s">
         <v>101</v>
       </c>
       <c r="C43" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="28" t="s">
-        <v>10</v>
-      </c>
+      <c r="D43" s="28"/>
       <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
+      <c r="F43" s="28" t="s">
+        <v>110</v>
+      </c>
       <c r="G43" s="28"/>
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
     </row>
-    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12">
       <c r="B44" s="28" t="s">
         <v>102</v>
       </c>
       <c r="C44" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="28" t="s">
-        <v>10</v>
-      </c>
+      <c r="D44" s="28"/>
       <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
+      <c r="F44" s="28" t="s">
+        <v>110</v>
+      </c>
       <c r="G44" s="28"/>
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12">
       <c r="B45" s="28" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="28"/>
+        <v>109</v>
+      </c>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="F45" s="28"/>
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12">
       <c r="B46" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D46" s="28"/>
       <c r="E46" s="28" t="s">
@@ -3603,97 +3638,160 @@
       <c r="H46" s="28"/>
       <c r="I46" s="28"/>
     </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12">
       <c r="B47" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="28"/>
+        <v>13</v>
+      </c>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="F47" s="28"/>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
-      <c r="K47" s="35">
-        <v>42204</v>
-      </c>
-      <c r="L47" s="34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:12">
       <c r="B48" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C48" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="28" t="s">
-        <v>10</v>
-      </c>
+      <c r="D48" s="28"/>
       <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
+      <c r="F48" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
       <c r="I48" s="28"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K48" s="35">
+        <v>42204</v>
+      </c>
+      <c r="L48" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="32">
       <c r="B49" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C49" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="28" t="s">
-        <v>10</v>
-      </c>
+      <c r="D49" s="28"/>
       <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
+      <c r="F49" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
       <c r="I49" s="28"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="K49" s="31"/>
+      <c r="L49" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="B50" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C50" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="28" t="s">
-        <v>10</v>
-      </c>
+      <c r="D50" s="28"/>
       <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
+      <c r="F50" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
       <c r="I50" s="28"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="32" t="s">
+      <c r="K50" s="33"/>
+      <c r="L50" s="34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="32">
+      <c r="B51" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="32" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="K51" s="33"/>
-      <c r="L51" s="34"/>
-    </row>
-    <row r="52" spans="2:12" ht="45" x14ac:dyDescent="0.2">
-      <c r="K52" s="36"/>
-      <c r="L52" s="37" t="s">
+    <row r="52" spans="1:12">
+      <c r="A52" s="38"/>
+      <c r="B52" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="34"/>
+    </row>
+    <row r="53" spans="1:12" ht="32">
+      <c r="A53" s="38"/>
+      <c r="B53" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="37" t="s">
         <v>78</v>
       </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="38"/>
+      <c r="B54" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Scrum_Board.xlsx
+++ b/Scrum_Board.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23913"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -2800,8 +2800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="16" x14ac:dyDescent="0"/>
